--- a/output_data/tmp.xlsx
+++ b/output_data/tmp.xlsx
@@ -322,7 +322,7 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -347,7 +347,7 @@
       </c>
       <c r="G2" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H2" s="1" t="inlineStr">
@@ -490,7 +490,7 @@
       </c>
       <c r="B6" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" s="1" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="H6" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -557,12 +557,12 @@
       </c>
       <c r="G7" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H7" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -589,7 +589,7 @@
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
@@ -604,7 +604,7 @@
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -621,7 +621,7 @@
       </c>
       <c r="C9" s="1" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D9" s="1" t="inlineStr">
@@ -646,7 +646,7 @@
       </c>
       <c r="H9" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
